--- a/CTDC_Automation/OutputFiles/TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx
+++ b/CTDC_Automation/OutputFiles/TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx
@@ -47,7 +47,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\Users\radhakrishnang2\Desktop\Script\DataCommons_Automation\CTDC_Automation\OutputFiles\TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx</t>
+    <t>C:\laxmi\Katalon_May5\DataCommons_Automation\DataCommons_Automation\CTDC_Automation\OutputFiles\TC03_Canine_Filter_Study-ALL_Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
